--- a/ventas-anuales.xlsx
+++ b/ventas-anuales.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Rayo Artificial\Análisis de datos\Proyecciones\proyecciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AE2D04-7A6A-4F74-AFBB-B9A955B71310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE52D6FF-982B-46EF-9090-4A742D700100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9780" yWindow="1344" windowWidth="15288" windowHeight="10980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1981-2023" sheetId="1" r:id="rId1"/>
-    <sheet name="2024-2029" sheetId="3" r:id="rId2"/>
+    <sheet name="Datos históricos" sheetId="1" r:id="rId1"/>
+    <sheet name="Proyecciones" sheetId="3" r:id="rId2"/>
     <sheet name="Unidades" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Año</t>
   </si>
@@ -385,7 +385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
@@ -1153,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73A5846-F69A-4278-ADF9-44E51EF9772D}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1166,7 +1166,7 @@
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1176,8 +1176,11 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2024</v>
       </c>
@@ -1187,8 +1190,11 @@
       <c r="C2" s="1">
         <v>575822.2178877081</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2025</v>
       </c>
@@ -1198,8 +1204,11 @@
       <c r="C3" s="1">
         <v>593096.8844243394</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2026</v>
       </c>
@@ -1209,8 +1218,11 @@
       <c r="C4" s="1">
         <v>610889.79095706961</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2027</v>
       </c>
@@ -1220,8 +1232,11 @@
       <c r="C5" s="1">
         <v>629216.48468578176</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2028</v>
       </c>
@@ -1231,8 +1246,11 @@
       <c r="C6" s="1">
         <v>648092.97922635521</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2029</v>
       </c>
@@ -1241,6 +1259,9 @@
       </c>
       <c r="C7" s="1">
         <v>667535.76860314584</v>
+      </c>
+      <c r="D7">
+        <v>11.51</v>
       </c>
     </row>
   </sheetData>
